--- a/biology/Zoologie/Dryopsophus_platycephalus/Dryopsophus_platycephalus.xlsx
+++ b/biology/Zoologie/Dryopsophus_platycephalus/Dryopsophus_platycephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus platycephalus est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus platycephalus est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans trois zones distinctes[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans trois zones distinctes, :
 dans une grande zone qui s'étend de l'Australie-Méridionale vers la Nouvelle-Galles du Sud, le Sud-Ouest du Queensland et le Sud-Est du Territoire du Nord ;
 dans la zone aride centrale de l'Australie-Occidentale de Winning Pool vers le lac Disappointment à l'Est et vers Morawa et Laverton au Sud ;
 dans une petite zone située au Nord-Est du Territoire du Nord.
-La zone de répartition de l'espèce est d'environ 1 645 500 km2[3].
+La zone de répartition de l'espèce est d'environ 1 645 500 km2.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Dryopsophus platycephalus[4] mesure 53 mm. Cette espèce a la face dorsale uniformément olive verdâtre et la face ventrale blanchâtre avec de petites taches verdâtres sur la gorge.
-Les mâles mesurent de 42 à 64 mm et les femelles de 50 à 72 mm[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Dryopsophus platycephalus mesure 53 mm. Cette espèce a la face dorsale uniformément olive verdâtre et la face ventrale blanchâtre avec de petites taches verdâtres sur la gorge.
+Les mâles mesurent de 42 à 64 mm et les femelles de 50 à 72 mm.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du grec ancien πλατύς, platús, « plat, plate », et  κεφαλή, képhalế, « tête », lui a été donné en référence à sa morphologie[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du grec ancien πλατύς, platús, « plat, plate », et  κεφαλή, képhalế, « tête », lui a été donné en référence à sa morphologie.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Günther, 1873 : Descriptions of two new Species of Frogs from Australia. Annals and Magazine of Natural History, sér. 4, vol. 11, p. 349–350[6].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Günther, 1873 : Descriptions of two new Species of Frogs from Australia. Annals and Magazine of Natural History, sér. 4, vol. 11, p. 349–350.</t>
         </is>
       </c>
     </row>
